--- a/public/output/personel-29/پرسنل29_تیر_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_تیر_1400.xlsx
@@ -739,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1513,17 +1513,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="3" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>208</v>
       </c>
     </row>

--- a/public/output/personel-29/پرسنل29_تیر_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_تیر_1400.xlsx
@@ -641,7 +641,7 @@
     <t>95:57:13</t>
   </si>
   <si>
-    <t>04:40:11</t>
+    <t>07:06:13</t>
   </si>
   <si>
     <t>00:51:10</t>

--- a/public/output/personel-29/پرسنل29_تیر_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_تیر_1400.xlsx
@@ -641,13 +641,13 @@
     <t>95:57:13</t>
   </si>
   <si>
-    <t>07:06:13</t>
+    <t>31:16:31</t>
   </si>
   <si>
     <t>00:51:10</t>
   </si>
   <si>
-    <t>86:31:38</t>
+    <t>79:01:38</t>
   </si>
 </sst>
 </file>
